--- a/data/trans_dic/P55$familiar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,52</t>
+          <t>0,0; 60,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,63</t>
+          <t>0,0; 42,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,57</t>
+          <t>0,0; 61,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,58; 65,56</t>
+          <t>18,87; 64,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,93</t>
+          <t>0,0; 67,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,02; 71,56</t>
+          <t>31,6; 72,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,52</t>
+          <t>0,0; 33,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,6</t>
+          <t>0,0; 48,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,74</t>
+          <t>0,0; 45,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,21; 62,35</t>
+          <t>31,36; 61,5</t>
         </is>
       </c>
     </row>
@@ -869,17 +870,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,28</t>
+          <t>0,0; 48,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 59,02</t>
+          <t>7,59; 57,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,2; 68,45</t>
+          <t>30,77; 68,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,01</t>
+          <t>0,0; 60,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,8; 65,15</t>
+          <t>28,53; 65,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 39,2</t>
+          <t>4,72; 39,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 36,91</t>
+          <t>4,6; 38,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,62; 62,47</t>
+          <t>33,98; 60,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 55,48</t>
+          <t>10,19; 55,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 50,02</t>
+          <t>7,98; 43,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 34,93</t>
+          <t>4,55; 34,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,53; 66,99</t>
+          <t>33,97; 66,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,16</t>
+          <t>0,0; 64,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 61,79</t>
+          <t>20,7; 65,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 53,14</t>
+          <t>7,1; 50,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,15; 71,56</t>
+          <t>40,64; 72,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 47,91</t>
+          <t>12,8; 48,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,98; 44,32</t>
+          <t>17,37; 46,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 36,2</t>
+          <t>8,51; 37,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>41,72; 64,2</t>
+          <t>42,49; 64,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 24,82</t>
+          <t>8,37; 23,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 34,41</t>
+          <t>12,69; 34,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,49; 44,04</t>
+          <t>16,78; 42,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,04; 68,09</t>
+          <t>50,04; 68,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,93; 59,84</t>
+          <t>20,83; 61,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 65,41</t>
+          <t>19,57; 65,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,21; 49,87</t>
+          <t>12,47; 47,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,06; 63,51</t>
+          <t>42,28; 61,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 28,93</t>
+          <t>14,11; 29,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 36,64</t>
+          <t>18,45; 37,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 41,52</t>
+          <t>18,95; 40,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,29; 64,38</t>
+          <t>49,24; 63,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 60,85</t>
+          <t>17,56; 60,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 50,0</t>
+          <t>20,04; 51,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,85; 51,33</t>
+          <t>25,35; 50,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,82; 53,42</t>
+          <t>26,09; 53,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,32; 40,4</t>
+          <t>12,06; 42,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,7; 44,24</t>
+          <t>23,14; 43,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,97; 47,22</t>
+          <t>19,57; 47,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,72; 68,33</t>
+          <t>54,74; 68,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,97; 43,73</t>
+          <t>16,4; 41,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,46; 40,94</t>
+          <t>23,93; 41,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 44,99</t>
+          <t>25,68; 44,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,5; 62,01</t>
+          <t>49,49; 62,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,49; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,91; 35,62</t>
+          <t>20,53; 35,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 39,3</t>
+          <t>23,12; 39,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,33; 37,78</t>
+          <t>21,66; 38,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>54,89; 67,13</t>
+          <t>54,49; 66,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,84; 35,84</t>
+          <t>20,83; 35,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 39,3</t>
+          <t>23,12; 39,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,33; 37,78</t>
+          <t>21,66; 38,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,19; 66,8</t>
+          <t>54,72; 66,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,68; 27,91</t>
+          <t>12,96; 26,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,22; 31,13</t>
+          <t>16,57; 30,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,9; 36,87</t>
+          <t>21,51; 37,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>45,37; 58,17</t>
+          <t>45,26; 58,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,9; 31,89</t>
+          <t>19,56; 31,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,72; 38,6</t>
+          <t>26,76; 38,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 35,11</t>
+          <t>22,2; 34,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,79; 62,48</t>
+          <t>54,68; 62,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 28,5</t>
+          <t>19,01; 27,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,57; 33,39</t>
+          <t>24,47; 33,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,91; 33,3</t>
+          <t>23,77; 33,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,5; 59,38</t>
+          <t>52,8; 59,68</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4835</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7147</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11982</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6100</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3578</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4322</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2264; 7736</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1803</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5436</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4379; 10076</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7877</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5669</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6802</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8108; 15899</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8382</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6420</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14803</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1844</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4615</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>816; 6143</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5371; 11925</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1636</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5296</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1773</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3914; 8985</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1911</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>864; 7166</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>803; 6677</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10592; 18990</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5051</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10794</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2203</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7377</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11861</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7254</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12647</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6244</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22656</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1836; 9943</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1950; 10641</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>750; 5738</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7196; 14120</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5382</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3933; 12398</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1157; 8237</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8608; 15282</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3370; 12809</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7545; 20352</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2789; 12129</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18004; 27316</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10813</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15053</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11606</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42678</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8988</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20225</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19801</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23308</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20833</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>62903</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5908; 16711</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8603; 23695</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6689; 16996</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36046; 49223</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4878; 14380</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4078; 13608</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4093; 15703</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16399; 23999</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13273; 28022</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>16349; 33597</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13775; 29466</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54562; 70632</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5849</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11645</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17672</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11791</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8762</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27646</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17254</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57349</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14610</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39290</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>34926</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>69140</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2824; 9749</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7220; 18535</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11999; 24087</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7845; 16054</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4393; 15398</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19331; 36559</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10378; 25070</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>51018; 63975</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8611; 21702</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>28613; 49635</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25766; 44931</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>61003; 76651</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>39103</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>44074</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>43138</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>85739</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>40017</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>44074</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>43138</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>87352</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>209; 914</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2145</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>29577; 51345</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>33090; 56215</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31890; 56565</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>76834; 93691</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>30197; 51774</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>33090; 56215</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>31890; 56565</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>78336; 95517</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>24378</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>33956</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35382</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>80093</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>59055</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>89235</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>74763</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>188743</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>83433</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>123190</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>110146</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>268836</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>16410; 33428</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>24227; 45248</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>26123; 45209</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>70100; 90578</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45180; 73115</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>74556; 106973</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>58634; 91099</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>175929; 201522</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>67956; 99972</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>103940; 142106</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>91648; 128983</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>251660; 284452</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P55$familiar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
